--- a/app/services/seed_generator/Seeds.xlsx
+++ b/app/services/seed_generator/Seeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/constuction_chemicals/gladz_gipsowa.jpeg</t>
   </si>
   <si>
-    <t>constuction_chemicals</t>
+    <t>construction_chemicals</t>
   </si>
   <si>
     <t>Grunt głęboko penetrujący</t>
@@ -98,6 +98,183 @@
   </si>
   <si>
     <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/constuction_chemicals/tynk_nanosilikonowy.png</t>
+  </si>
+  <si>
+    <t>Bloczek Termalika</t>
+  </si>
+  <si>
+    <t>124.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/bloczke_termalika.jpeg</t>
+  </si>
+  <si>
+    <t>foundation_zone</t>
+  </si>
+  <si>
+    <t>Folia kubełkowa</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/folia_kube%C5%82kowa.jpeg</t>
+  </si>
+  <si>
+    <t>Powłoka przeciwwilgociowa</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/pow%C5%82oka_przeciwwilgociowa.jpeg</t>
+  </si>
+  <si>
+    <t>Syropian fundamentowy 15 cm</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/styropian_fundamentowy_15cm.png</t>
+  </si>
+  <si>
+    <t>Syropian fundamentowy 16 cm</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/styropian_fundamentowy_16cm.png</t>
+  </si>
+  <si>
+    <t>Syropian fundamentowy 1 cm7</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/foundation_materials/styropian_fundamentowy_17cm.png</t>
+  </si>
+  <si>
+    <t>Grzebień okapowy z kratką wentylacyjną</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/grzebien_okapowy_z_kratka_wentylacyjna.jpeg</t>
+  </si>
+  <si>
+    <t>roof_zone</t>
+  </si>
+  <si>
+    <t>Kratka zabezpieczająca przed ptactwem</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/kratka_zabezpieczajaca_przed_ptactwem.jpeg</t>
+  </si>
+  <si>
+    <t>Mocownik łaty kominiarskiej</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/mocownik_laty_kominiarskiej.jpeg</t>
+  </si>
+  <si>
+    <t>Świetlik</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/swietlik_fakro.png</t>
+  </si>
+  <si>
+    <t>Taśma kalenicowa</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/tasma_kalenicowa.jpeg</t>
+  </si>
+  <si>
+    <t>Wspornik łaty kalenicowej</t>
+  </si>
+  <si>
+    <t>175.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/wspornik_laty_kalenicowej.jpeg</t>
+  </si>
+  <si>
+    <t>Wywietrznik kalenicowy</t>
+  </si>
+  <si>
+    <t>225.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/roof_+accessories/wywietrznik_kalenicowy.jpeg</t>
+  </si>
+  <si>
+    <t>Dalmierz PRO laserowy</t>
+  </si>
+  <si>
+    <t>359.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/tools/Dalmierz+PRO+laserowy.jpeg</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>Poziomica PRO</t>
+  </si>
+  <si>
+    <t>220.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/tools/Poziomica+PRO.jpeg</t>
+  </si>
+  <si>
+    <t>Kątowniki montażowe do schodów strychowych</t>
+  </si>
+  <si>
+    <t>799.99</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/stairway/Ka%CC%A8towniki+montaz%CC%87owe+do+schodo%CC%81w+strychowych.png</t>
+  </si>
+  <si>
+    <t>stairway</t>
+  </si>
+  <si>
+    <t>Listwa wykończeniowa Fakro</t>
+  </si>
+  <si>
+    <t>200.50</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/stairway/Listwa+wykon%CC%81czeniowa+Fakro.jpeg</t>
+  </si>
+  <si>
+    <t>Schody strychowe</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/stairway/Schody+strychowe.jpeg</t>
+  </si>
+  <si>
+    <t>Segment przesuwny</t>
+  </si>
+  <si>
+    <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/stairway/Segment+przesuwny.jpeg</t>
   </si>
   <si>
     <t>content</t>
@@ -140,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -155,6 +332,14 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -179,6 +364,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -409,9 +600,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="36.25"/>
     <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="4" width="25.13"/>
+    <col customWidth="1" min="4" max="4" width="24.5"/>
     <col customWidth="1" min="5" max="5" width="18.38"/>
   </cols>
   <sheetData>
@@ -555,6 +746,329 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -566,8 +1080,27 @@
     <hyperlink r:id="rId5" ref="D6"/>
     <hyperlink r:id="rId6" ref="D7"/>
     <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D10"/>
+    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink r:id="rId12" ref="D13"/>
+    <hyperlink r:id="rId13" ref="D14"/>
+    <hyperlink r:id="rId14" ref="D15"/>
+    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId21" ref="D22"/>
+    <hyperlink r:id="rId22" ref="D23"/>
+    <hyperlink r:id="rId23" ref="D24"/>
+    <hyperlink r:id="rId24" ref="D25"/>
+    <hyperlink r:id="rId25" ref="D26"/>
+    <hyperlink r:id="rId26" ref="D27"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -593,6 +1126,26 @@
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -616,35 +1169,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>5.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -668,29 +1221,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/app/services/seed_generator/Seeds.xlsx
+++ b/app/services/seed_generator/Seeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>picture_path</t>
   </si>
   <si>
-    <t>product_cathegory</t>
+    <t>product_cathegory_id</t>
   </si>
   <si>
     <t>promoted_from</t>
@@ -82,6 +82,9 @@
     <t>https://olx-development.s3.eu-central-1.amazonaws.com/images/products/constuction_chemicals/tynk+akrylowy.jpeg</t>
   </si>
   <si>
+    <t>2022-10-27 13:18:43.685298</t>
+  </si>
+  <si>
     <t>Tynk mozaikowy</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t>1234Hbjkadasd</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>1234Hbjkajjkkaasd</t>
@@ -604,6 +610,8 @@
     <col customWidth="1" min="3" max="3" width="15.0"/>
     <col customWidth="1" min="4" max="4" width="24.5"/>
     <col customWidth="1" min="5" max="5" width="18.38"/>
+    <col customWidth="1" min="6" max="6" width="23.5"/>
+    <col customWidth="1" min="7" max="7" width="23.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -713,19 +721,25 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>10.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -733,16 +747,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>10.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -750,325 +764,328 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1000.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>46.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>12.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>50.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>50.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
         <v>50.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>100.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>100.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>100.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>30.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
         <v>125.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1">
         <v>80.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1">
         <v>24.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>12.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1">
         <v>50.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1">
         <v>20.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1">
         <v>130.0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1">
         <v>15.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>45.0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1138,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1130,22 +1146,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1169,35 +1185,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>5.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1221,29 +1237,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
